--- a/Energy Consumption11.xlsx
+++ b/Energy Consumption11.xlsx
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.50270890861679</v>
+        <v>1.797565406020876</v>
       </c>
       <c r="C2" t="n">
-        <v>2.381461606979259</v>
+        <v>3.954677509319504</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.630966360802864</v>
+        <v>4.677536928975535</v>
       </c>
       <c r="C3" t="n">
-        <v>4.453343901731579</v>
+        <v>8.848840784703315</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.743959035398882</v>
+        <v>5.961097891796423</v>
       </c>
       <c r="C4" t="n">
-        <v>6.86194465471041</v>
+        <v>13.1206480759472</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8.873881682461667</v>
+        <v>8.440282872316885</v>
       </c>
       <c r="C5" t="n">
-        <v>9.24670944169304</v>
+        <v>17.02725871023842</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10.35352566417742</v>
+        <v>10.95498289802889</v>
       </c>
       <c r="C6" t="n">
-        <v>11.59048822625666</v>
+        <v>20.83818187421087</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.20186468041454</v>
+        <v>13.07875922300305</v>
       </c>
       <c r="C7" t="n">
-        <v>14.01467896343552</v>
+        <v>25.29738175455026</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20.51162541701031</v>
+        <v>17.80016034760816</v>
       </c>
       <c r="C8" t="n">
-        <v>16.52933608310644</v>
+        <v>29.56586737311416</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>21.18510152559132</v>
+        <v>19.28567799416857</v>
       </c>
       <c r="C9" t="n">
-        <v>18.89959436038493</v>
+        <v>33.72965533858511</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>22.45271192866185</v>
+        <v>21.387958567855</v>
       </c>
       <c r="C10" t="n">
-        <v>21.18375403723618</v>
+        <v>37.55415423775222</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>22.61472489090479</v>
+        <v>23.40313956480723</v>
       </c>
       <c r="C11" t="n">
-        <v>23.70231786034138</v>
+        <v>42.14128527319716</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>23.22255014175649</v>
+        <v>27.75961736467185</v>
       </c>
       <c r="C12" t="n">
-        <v>26.61459249722474</v>
+        <v>46.03924457173056</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>24.95541367809025</v>
+        <v>29.56011895275808</v>
       </c>
       <c r="C13" t="n">
-        <v>29.29216963668674</v>
+        <v>50.61062440751094</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>27.96042819154937</v>
+        <v>32.39816714436071</v>
       </c>
       <c r="C14" t="n">
-        <v>31.49200318612929</v>
+        <v>55.12703792155841</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>28.79086358421396</v>
+        <v>34.2334642766857</v>
       </c>
       <c r="C15" t="n">
-        <v>33.8560806404767</v>
+        <v>58.95976806748047</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>31.59609423479385</v>
+        <v>36.81098300271012</v>
       </c>
       <c r="C16" t="n">
-        <v>36.24107435848418</v>
+        <v>63.25057093536375</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>35.14708629849435</v>
+        <v>38.0869738536263</v>
       </c>
       <c r="C17" t="n">
-        <v>38.56015339979476</v>
+        <v>67.20549717436434</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>36.84964728862268</v>
+        <v>39.01040223842817</v>
       </c>
       <c r="C18" t="n">
-        <v>41.09729707633358</v>
+        <v>71.61082821570498</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>37.36358327939658</v>
+        <v>40.58517080948999</v>
       </c>
       <c r="C19" t="n">
-        <v>43.39347102319982</v>
+        <v>76.04381967141978</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>37.77454015673354</v>
+        <v>40.96499395184869</v>
       </c>
       <c r="C20" t="n">
-        <v>45.74977199221016</v>
+        <v>79.97588142188242</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>42.33221240948441</v>
+        <v>42.49981855189498</v>
       </c>
       <c r="C21" t="n">
-        <v>48.11731889713302</v>
+        <v>84.45035574612109</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>43.4748135481413</v>
+        <v>44.24553300055891</v>
       </c>
       <c r="C22" t="n">
-        <v>50.35342332663266</v>
+        <v>89.08401748825622</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>47.24314585142837</v>
+        <v>46.56138860543905</v>
       </c>
       <c r="C23" t="n">
-        <v>52.78659829659003</v>
+        <v>94.49465243399112</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>47.9837582195908</v>
+        <v>47.57029354010074</v>
       </c>
       <c r="C24" t="n">
-        <v>55.32280077286306</v>
+        <v>98.22162261075368</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>50.23603983187211</v>
+        <v>49.17519514688801</v>
       </c>
       <c r="C25" t="n">
-        <v>57.93345625259102</v>
+        <v>102.7885162915794</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>53.09023530679709</v>
+        <v>52.52708031835691</v>
       </c>
       <c r="C26" t="n">
-        <v>60.53484213226011</v>
+        <v>106.6912196580947</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>55.38143684377961</v>
+        <v>55.3121697002949</v>
       </c>
       <c r="C27" t="n">
-        <v>63.16128202935554</v>
+        <v>110.6380128416091</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>55.73973801074521</v>
+        <v>56.03913088202432</v>
       </c>
       <c r="C28" t="n">
-        <v>65.43095252406613</v>
+        <v>114.807946201576</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>57.19524913842654</v>
+        <v>58.59779263178197</v>
       </c>
       <c r="C29" t="n">
-        <v>67.84426731840762</v>
+        <v>119.0832017526606</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>60.02873422938821</v>
+        <v>59.2802852016593</v>
       </c>
       <c r="C30" t="n">
-        <v>70.37205631087086</v>
+        <v>123.051809335653</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>62.36300352270706</v>
+        <v>61.15484052803086</v>
       </c>
       <c r="C31" t="n">
-        <v>73.13758168251098</v>
+        <v>126.9124445608208</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>63.86731113320401</v>
+        <v>62.55796789195843</v>
       </c>
       <c r="C32" t="n">
-        <v>75.5846978435769</v>
+        <v>131.1917152746573</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>67.37345328248506</v>
+        <v>65.50024433760166</v>
       </c>
       <c r="C33" t="n">
-        <v>77.79266376823928</v>
+        <v>135.8347278042092</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>69.37308242635108</v>
+        <v>66.43556713155643</v>
       </c>
       <c r="C34" t="n">
-        <v>80.2579577318799</v>
+        <v>139.8388339900565</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>75.45318121901472</v>
+        <v>71.14613256641478</v>
       </c>
       <c r="C35" t="n">
-        <v>82.64092852658625</v>
+        <v>143.9474753276745</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>75.69292336184489</v>
+        <v>72.89303389590836</v>
       </c>
       <c r="C36" t="n">
-        <v>85.01664591170106</v>
+        <v>148.0625914835387</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>76.2029402436937</v>
+        <v>76.02930088495714</v>
       </c>
       <c r="C37" t="n">
-        <v>87.28513475677464</v>
+        <v>152.5602874393692</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>76.70771578127105</v>
+        <v>76.94635775713127</v>
       </c>
       <c r="C38" t="n">
-        <v>89.96236041429994</v>
+        <v>156.61346376025</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>78.74920814598519</v>
+        <v>78.04401230648861</v>
       </c>
       <c r="C39" t="n">
-        <v>92.11092820925445</v>
+        <v>161.2538625235578</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>80.39978940397546</v>
+        <v>79.98556704833244</v>
       </c>
       <c r="C40" t="n">
-        <v>94.40086447115071</v>
+        <v>165.6711942496314</v>
       </c>
     </row>
     <row r="41">
@@ -879,10 +879,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>82.50324334557249</v>
+        <v>81.80685047373714</v>
       </c>
       <c r="C41" t="n">
-        <v>96.84645323295139</v>
+        <v>170.0840128240419</v>
       </c>
     </row>
     <row r="42">
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>87.20676217052345</v>
+        <v>83.47859264513181</v>
       </c>
       <c r="C42" t="n">
-        <v>99.04161184807477</v>
+        <v>174.2545901457182</v>
       </c>
     </row>
     <row r="43">
@@ -901,10 +901,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>88.15559461305678</v>
+        <v>88.4958612499025</v>
       </c>
       <c r="C43" t="n">
-        <v>101.592235966654</v>
+        <v>178.6038153202076</v>
       </c>
     </row>
     <row r="44">
@@ -912,10 +912,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>89.43613525255174</v>
+        <v>90.81391240434517</v>
       </c>
       <c r="C44" t="n">
-        <v>104.1774639938535</v>
+        <v>182.6069770014621</v>
       </c>
     </row>
     <row r="45">
@@ -923,10 +923,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>92.66256648561063</v>
+        <v>94.58921014283855</v>
       </c>
       <c r="C45" t="n">
-        <v>106.4802398330759</v>
+        <v>187.07179896263</v>
       </c>
     </row>
     <row r="46">
@@ -934,10 +934,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>92.96285142390168</v>
+        <v>95.56702402625771</v>
       </c>
       <c r="C46" t="n">
-        <v>109.2766883485926</v>
+        <v>191.2239541815437</v>
       </c>
     </row>
     <row r="47">
@@ -945,10 +945,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>96.14319604461882</v>
+        <v>96.39900213424353</v>
       </c>
       <c r="C47" t="n">
-        <v>111.9589311967178</v>
+        <v>194.9291902859382</v>
       </c>
     </row>
     <row r="48">
@@ -956,10 +956,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>97.96610752457714</v>
+        <v>97.4779173062874</v>
       </c>
       <c r="C48" t="n">
-        <v>114.5661487274382</v>
+        <v>199.7390641106491</v>
       </c>
     </row>
     <row r="49">
@@ -967,10 +967,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>98.21110742443209</v>
+        <v>98.50031392032066</v>
       </c>
       <c r="C49" t="n">
-        <v>116.8757483984753</v>
+        <v>203.8977958260083</v>
       </c>
     </row>
   </sheetData>
